--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/1.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/1.xlsx
@@ -479,13 +479,13 @@
         <v>0.1209028362347842</v>
       </c>
       <c r="E2" t="n">
-        <v>-2.005746445593782</v>
+        <v>-2.009663966100535</v>
       </c>
       <c r="F2" t="n">
-        <v>0.282681422851022</v>
+        <v>0.2949780336149396</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04391394576242952</v>
+        <v>0.04197927737578468</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>0.166031075752123</v>
       </c>
       <c r="E3" t="n">
-        <v>-2.096424572447269</v>
+        <v>-2.089356811645113</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1208084752420874</v>
+        <v>0.1296791615647112</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.003589116225416223</v>
+        <v>-0.005629910809815225</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>0.2192565160570276</v>
       </c>
       <c r="E4" t="n">
-        <v>-2.302192291320408</v>
+        <v>-2.296049780184878</v>
       </c>
       <c r="F4" t="n">
-        <v>0.08357098816458824</v>
+        <v>0.08660595345208659</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.02442766606719037</v>
+        <v>-0.02483936252399531</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>0.266057363913001</v>
       </c>
       <c r="E5" t="n">
-        <v>-2.332781643021354</v>
+        <v>-2.332394343391619</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1183029211020064</v>
+        <v>0.1246985493183865</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.02460454306344731</v>
+        <v>-0.03109287922269315</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>0.3008333011909756</v>
       </c>
       <c r="E6" t="n">
-        <v>-2.321154115239829</v>
+        <v>-2.330495660324902</v>
       </c>
       <c r="F6" t="n">
-        <v>0.07951013629879967</v>
+        <v>0.09238556178495118</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.01746969098684853</v>
+        <v>-0.02583353322709464</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>0.3212434562147862</v>
       </c>
       <c r="E7" t="n">
-        <v>-2.012295163900026</v>
+        <v>-2.036695650494009</v>
       </c>
       <c r="F7" t="n">
-        <v>0.163177224973068</v>
+        <v>0.1706444838184945</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.06025074709531081</v>
+        <v>-0.06845235043554194</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>0.3321207368783559</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.814414329297916</v>
+        <v>-1.826524304334749</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1674393506621835</v>
+        <v>0.1819786397545037</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.007881128027692306</v>
+        <v>-0.01533984798364431</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>0.3447723126991908</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.368099384801434</v>
+        <v>-1.36375065037622</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2175022497303408</v>
+        <v>0.2440429479790325</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.04327299513735187</v>
+        <v>-0.04892452012809937</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>0.3682436488193808</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.7696988897957936</v>
+        <v>-0.7574705901476718</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2458257461171671</v>
+        <v>0.273109327750138</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0226911458943041</v>
+        <v>0.007124140461663414</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>0.409741740194414</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.3718982557692055</v>
+        <v>-0.3333384606645165</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1157504030698158</v>
+        <v>0.1411584786217864</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04477820336138152</v>
+        <v>0.02686910253002829</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.4748900930063343</v>
       </c>
       <c r="E12" t="n">
-        <v>0.3096295481117814</v>
+        <v>0.3544422499944915</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.001080512481951461</v>
+        <v>0.01489879932817091</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1729725510416418</v>
+        <v>0.1505671149813019</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.5653462484751763</v>
       </c>
       <c r="E13" t="n">
-        <v>0.8340405658211152</v>
+        <v>0.9031848332613355</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.0614766876555744</v>
+        <v>-0.06577540858529471</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2356479997842723</v>
+        <v>0.2170545679536077</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.6843256962294272</v>
       </c>
       <c r="E14" t="n">
-        <v>1.336184599463731</v>
+        <v>1.420825731458766</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.3681393146384072</v>
+        <v>-0.3794082090620043</v>
       </c>
       <c r="G14" t="n">
-        <v>0.3998691419986869</v>
+        <v>0.3822711007124752</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.8302295584613653</v>
       </c>
       <c r="E15" t="n">
-        <v>1.90494782894483</v>
+        <v>1.987184043711447</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.7440157400186096</v>
+        <v>-0.7534194970127112</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4253138127912623</v>
+        <v>0.4228344852402815</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>1.001655660001939</v>
       </c>
       <c r="E16" t="n">
-        <v>2.598056806635909</v>
+        <v>2.677217191429686</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.9538302825819718</v>
+        <v>-0.9893563322405159</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5341578170810137</v>
+        <v>0.5328422181812682</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>1.194002821831829</v>
       </c>
       <c r="E17" t="n">
-        <v>3.044562656304213</v>
+        <v>3.139868861252864</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.282032868184839</v>
+        <v>-1.325639146968941</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5801537650766151</v>
+        <v>0.5974242789594131</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>1.396368395117721</v>
       </c>
       <c r="E18" t="n">
-        <v>3.571114495588933</v>
+        <v>3.67495715032935</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.523766999445134</v>
+        <v>-1.566392525781026</v>
       </c>
       <c r="G18" t="n">
-        <v>0.6950353741454955</v>
+        <v>0.7173609105971814</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>1.601082397203079</v>
       </c>
       <c r="E19" t="n">
-        <v>3.831847046009253</v>
+        <v>3.958980131711971</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.804365886148492</v>
+        <v>-1.847985583187483</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8558677970798979</v>
+        <v>0.8825402381947672</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>1.798211583469294</v>
       </c>
       <c r="E20" t="n">
-        <v>4.127462179774148</v>
+        <v>4.253003372510554</v>
       </c>
       <c r="F20" t="n">
-        <v>-2.010619711800999</v>
+        <v>-2.066392688244872</v>
       </c>
       <c r="G20" t="n">
-        <v>1.120255602115969</v>
+        <v>1.152675935688512</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.982581869228395</v>
       </c>
       <c r="E21" t="n">
-        <v>4.454707799835197</v>
+        <v>4.580552733068624</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.33675283654766</v>
+        <v>-2.39343032535515</v>
       </c>
       <c r="G21" t="n">
-        <v>1.252786485807908</v>
+        <v>1.284810370940565</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>2.149757186442233</v>
       </c>
       <c r="E22" t="n">
-        <v>4.745832697577874</v>
+        <v>4.87949315436315</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.577758112599241</v>
+        <v>-2.620700187766365</v>
       </c>
       <c r="G22" t="n">
-        <v>1.279807191629201</v>
+        <v>1.322327811608692</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>2.295612049287949</v>
       </c>
       <c r="E23" t="n">
-        <v>5.026709708109829</v>
+        <v>5.16338317303824</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.757504175719601</v>
+        <v>-2.798159658269596</v>
       </c>
       <c r="G23" t="n">
-        <v>1.521696852662067</v>
+        <v>1.556533691955885</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>2.419885883221085</v>
       </c>
       <c r="E24" t="n">
-        <v>5.155756724896182</v>
+        <v>5.294002565329251</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.902739707108202</v>
+        <v>-2.94655884820849</v>
       </c>
       <c r="G24" t="n">
-        <v>1.623480415197782</v>
+        <v>1.649226386804671</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>2.51917573484059</v>
       </c>
       <c r="E25" t="n">
-        <v>5.38201899834941</v>
+        <v>5.509311883269437</v>
       </c>
       <c r="F25" t="n">
-        <v>-3.078965918003048</v>
+        <v>-3.11743148036318</v>
       </c>
       <c r="G25" t="n">
-        <v>1.679158853936759</v>
+        <v>1.705022540234261</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>2.59470120683088</v>
       </c>
       <c r="E26" t="n">
-        <v>5.442732942195619</v>
+        <v>5.570175867602125</v>
       </c>
       <c r="F26" t="n">
-        <v>-3.22754930398632</v>
+        <v>-3.262896646886577</v>
       </c>
       <c r="G26" t="n">
-        <v>1.694530074832164</v>
+        <v>1.715201506408509</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>2.644276595495219</v>
       </c>
       <c r="E27" t="n">
-        <v>5.58994339673553</v>
+        <v>5.70824605088029</v>
       </c>
       <c r="F27" t="n">
-        <v>-3.181257544462496</v>
+        <v>-3.216218502614033</v>
       </c>
       <c r="G27" t="n">
-        <v>1.696186009469535</v>
+        <v>1.720158941669117</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>2.664782076779374</v>
       </c>
       <c r="E28" t="n">
-        <v>5.590860717433359</v>
+        <v>5.706842013482416</v>
       </c>
       <c r="F28" t="n">
-        <v>-3.170848028272437</v>
+        <v>-3.204269241675523</v>
       </c>
       <c r="G28" t="n">
-        <v>1.720336428586051</v>
+        <v>1.73072154794904</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>2.656212532365368</v>
       </c>
       <c r="E29" t="n">
-        <v>5.60228453170885</v>
+        <v>5.712436205929549</v>
       </c>
       <c r="F29" t="n">
-        <v>-3.335991980470771</v>
+        <v>-3.354742466875698</v>
       </c>
       <c r="G29" t="n">
-        <v>1.735697280829951</v>
+        <v>1.748434864243157</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>2.616386234496127</v>
       </c>
       <c r="E30" t="n">
-        <v>5.578927009472106</v>
+        <v>5.6717532769491</v>
       </c>
       <c r="F30" t="n">
-        <v>-3.256743157178866</v>
+        <v>-3.278815881510039</v>
       </c>
       <c r="G30" t="n">
-        <v>1.704760884263936</v>
+        <v>1.714351886905799</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>2.548918732523188</v>
       </c>
       <c r="E31" t="n">
-        <v>5.520929652320134</v>
+        <v>5.604593691391019</v>
       </c>
       <c r="F31" t="n">
-        <v>-3.20892873068554</v>
+        <v>-3.233470108955852</v>
       </c>
       <c r="G31" t="n">
-        <v>1.588157469124595</v>
+        <v>1.606742362065785</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>2.455426190412533</v>
       </c>
       <c r="E32" t="n">
-        <v>5.310439927567611</v>
+        <v>5.394300361096409</v>
       </c>
       <c r="F32" t="n">
-        <v>-3.196683963179146</v>
+        <v>-3.218933869466915</v>
       </c>
       <c r="G32" t="n">
-        <v>1.510090062183551</v>
+        <v>1.518576498479824</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>2.339169568135622</v>
       </c>
       <c r="E33" t="n">
-        <v>5.12038620501021</v>
+        <v>5.204294212351793</v>
       </c>
       <c r="F33" t="n">
-        <v>-3.243793931290828</v>
+        <v>-3.2599214538254</v>
       </c>
       <c r="G33" t="n">
-        <v>1.406426724122098</v>
+        <v>1.421178875530603</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>2.205779826760514</v>
       </c>
       <c r="E34" t="n">
-        <v>4.919040411043494</v>
+        <v>4.98798096497768</v>
       </c>
       <c r="F34" t="n">
-        <v>-3.047496755725894</v>
+        <v>-3.082437586495098</v>
       </c>
       <c r="G34" t="n">
-        <v>1.293934174344039</v>
+        <v>1.314117059458309</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>2.05751561493073</v>
       </c>
       <c r="E35" t="n">
-        <v>4.674780598260785</v>
+        <v>4.744943433231175</v>
       </c>
       <c r="F35" t="n">
-        <v>-3.002126281384298</v>
+        <v>-3.038404973157949</v>
       </c>
       <c r="G35" t="n">
-        <v>1.266667060569341</v>
+        <v>1.28449626179204</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.900853617594441</v>
       </c>
       <c r="E36" t="n">
-        <v>4.470952427139705</v>
+        <v>4.533174094898835</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.95808024979226</v>
+        <v>-2.993136965490047</v>
       </c>
       <c r="G36" t="n">
-        <v>1.232181535585329</v>
+        <v>1.245617478173412</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>1.738564208710113</v>
       </c>
       <c r="E37" t="n">
-        <v>4.123474518389569</v>
+        <v>4.182112292252127</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.98615367870162</v>
+        <v>-3.019738350846075</v>
       </c>
       <c r="G37" t="n">
-        <v>1.175558329718069</v>
+        <v>1.188599043707619</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>1.575190419287094</v>
       </c>
       <c r="E38" t="n">
-        <v>3.856060896876151</v>
+        <v>3.914921901706399</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.936953817391061</v>
+        <v>-2.972255416240562</v>
       </c>
       <c r="G38" t="n">
-        <v>1.123271659862489</v>
+        <v>1.141028280524655</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>1.416607562138942</v>
       </c>
       <c r="E39" t="n">
-        <v>3.587939767377704</v>
+        <v>3.633949743548871</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.96152569169521</v>
+        <v>-2.999649393516024</v>
       </c>
       <c r="G39" t="n">
-        <v>1.01060284300885</v>
+        <v>1.03120962299346</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>1.264909461669087</v>
       </c>
       <c r="E40" t="n">
-        <v>3.341923383045961</v>
+        <v>3.384623929625093</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.997969976932598</v>
+        <v>-3.032932459885827</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8988659849492825</v>
+        <v>0.9159260761986024</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>1.125859142980515</v>
       </c>
       <c r="E41" t="n">
-        <v>3.023738744558681</v>
+        <v>3.069625516753144</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.873573910266787</v>
+        <v>-2.913204726079845</v>
       </c>
       <c r="G41" t="n">
-        <v>0.8871384301767709</v>
+        <v>0.900847617228037</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>1.000103747053837</v>
       </c>
       <c r="E42" t="n">
-        <v>2.667597522516016</v>
+        <v>2.717402425137908</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.930688102278828</v>
+        <v>-2.964893063751536</v>
       </c>
       <c r="G42" t="n">
-        <v>0.8615510379458363</v>
+        <v>0.8733969173296371</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.8895057342632094</v>
       </c>
       <c r="E43" t="n">
-        <v>2.477879256330825</v>
+        <v>2.5109650133617</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.765545979842524</v>
+        <v>-2.815904690438904</v>
       </c>
       <c r="G43" t="n">
-        <v>0.7801345565687683</v>
+        <v>0.7936613773376867</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.794512789821737</v>
       </c>
       <c r="E44" t="n">
-        <v>2.101487447978771</v>
+        <v>2.145254135900858</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.685406672362566</v>
+        <v>-2.735742815893907</v>
       </c>
       <c r="G44" t="n">
-        <v>0.8215628086162033</v>
+        <v>0.8181533520331817</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.7114395135552232</v>
       </c>
       <c r="E45" t="n">
-        <v>1.944948866608674</v>
+        <v>1.972825291139444</v>
       </c>
       <c r="F45" t="n">
-        <v>-2.713011072271507</v>
+        <v>-2.757655436047434</v>
       </c>
       <c r="G45" t="n">
-        <v>0.7366777083504692</v>
+        <v>0.7335347871031864</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.6396003401952026</v>
       </c>
       <c r="E46" t="n">
-        <v>1.681227704872289</v>
+        <v>1.704241231847346</v>
       </c>
       <c r="F46" t="n">
-        <v>-2.667469515180083</v>
+        <v>-2.71730552375649</v>
       </c>
       <c r="G46" t="n">
-        <v>0.6624107171462419</v>
+        <v>0.6591189752538327</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.5749992795285783</v>
       </c>
       <c r="E47" t="n">
-        <v>1.487361978085211</v>
+        <v>1.505788291650447</v>
       </c>
       <c r="F47" t="n">
-        <v>-2.589461270544683</v>
+        <v>-2.642109623361575</v>
       </c>
       <c r="G47" t="n">
-        <v>0.5536466124651445</v>
+        <v>0.548927046268468</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.5160105387406949</v>
       </c>
       <c r="E48" t="n">
-        <v>1.336401121303976</v>
+        <v>1.343334699557248</v>
       </c>
       <c r="F48" t="n">
-        <v>-2.584877716658921</v>
+        <v>-2.636908219830268</v>
       </c>
       <c r="G48" t="n">
-        <v>0.504818802767402</v>
+        <v>0.4972801832027959</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.4611865935336378</v>
       </c>
       <c r="E49" t="n">
-        <v>1.177876638210389</v>
+        <v>1.17780893701527</v>
       </c>
       <c r="F49" t="n">
-        <v>-2.55371930896657</v>
+        <v>-2.603078969494437</v>
       </c>
       <c r="G49" t="n">
-        <v>0.4352872356974466</v>
+        <v>0.4231760408192604</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.4084503345322687</v>
       </c>
       <c r="E50" t="n">
-        <v>1.054820872231731</v>
+        <v>1.04684615938325</v>
       </c>
       <c r="F50" t="n">
-        <v>-2.528768673922161</v>
+        <v>-2.581879956532705</v>
       </c>
       <c r="G50" t="n">
-        <v>0.3586738796497695</v>
+        <v>0.3516061188476131</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.3580458164113259</v>
       </c>
       <c r="E51" t="n">
-        <v>0.7836830750660885</v>
+        <v>0.7837885913431659</v>
       </c>
       <c r="F51" t="n">
-        <v>-2.422710787283794</v>
+        <v>-2.485640572948629</v>
       </c>
       <c r="G51" t="n">
-        <v>0.2742047452855775</v>
+        <v>0.2651486430772224</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.3080854695233617</v>
       </c>
       <c r="E52" t="n">
-        <v>0.6458855263304301</v>
+        <v>0.6392068949200388</v>
       </c>
       <c r="F52" t="n">
-        <v>-2.399228231308317</v>
+        <v>-2.457507371812948</v>
       </c>
       <c r="G52" t="n">
-        <v>0.2102258960567365</v>
+        <v>0.2085327562580838</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.2578425773540384</v>
       </c>
       <c r="E53" t="n">
-        <v>0.442466611983448</v>
+        <v>0.4404788804979261</v>
       </c>
       <c r="F53" t="n">
-        <v>-2.381755223760839</v>
+        <v>-2.442374629902152</v>
       </c>
       <c r="G53" t="n">
-        <v>0.2047957722716485</v>
+        <v>0.1985233480319715</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.2067395450308302</v>
       </c>
       <c r="E54" t="n">
-        <v>0.2718474018699463</v>
+        <v>0.2731678801351058</v>
       </c>
       <c r="F54" t="n">
-        <v>-2.341254051142061</v>
+        <v>-2.395499176290679</v>
       </c>
       <c r="G54" t="n">
-        <v>0.121494636003429</v>
+        <v>0.1166110011447073</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>0.1546909831470981</v>
       </c>
       <c r="E55" t="n">
-        <v>0.2257794832344887</v>
+        <v>0.222469443721777</v>
       </c>
       <c r="F55" t="n">
-        <v>-2.299508640342717</v>
+        <v>-2.352845593603658</v>
       </c>
       <c r="G55" t="n">
-        <v>0.07489608637920062</v>
+        <v>0.07235820644325196</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>0.1025470320733558</v>
       </c>
       <c r="E56" t="n">
-        <v>0.1295230218714637</v>
+        <v>0.127764620560399</v>
       </c>
       <c r="F56" t="n">
-        <v>-2.320910756889806</v>
+        <v>-2.373861630362366</v>
       </c>
       <c r="G56" t="n">
-        <v>0.01096664072517618</v>
+        <v>0.01104532049247668</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>0.0504060558359469</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.04560960124997367</v>
+        <v>-0.04841645620436823</v>
       </c>
       <c r="F57" t="n">
-        <v>-2.315376946589671</v>
+        <v>-2.36782524542459</v>
       </c>
       <c r="G57" t="n">
-        <v>0.04108269398096503</v>
+        <v>0.03143130919210377</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.001119053171600831</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.1973346886391741</v>
+        <v>-0.2007045003782071</v>
       </c>
       <c r="F58" t="n">
-        <v>-2.237246717818921</v>
+        <v>-2.297633744182393</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.03293483966647228</v>
+        <v>-0.03726649631273699</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.05154438664988818</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.2892716917694693</v>
+        <v>-0.2914064141380875</v>
       </c>
       <c r="F59" t="n">
-        <v>-2.321752447423719</v>
+        <v>-2.373914083540566</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.06060267132579444</v>
+        <v>-0.06883843022392346</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.1004496899239066</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.4994436478494059</v>
+        <v>-0.4853325230721628</v>
       </c>
       <c r="F60" t="n">
-        <v>-2.381317910635611</v>
+        <v>-2.431076459286071</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.07040409660113572</v>
+        <v>-0.07901617655681831</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.1478330065331633</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.604359153060223</v>
+        <v>-0.5924010482719007</v>
       </c>
       <c r="F61" t="n">
-        <v>-2.355892147384014</v>
+        <v>-2.406812594923679</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.09975347956625227</v>
+        <v>-0.1125422963163056</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.1934165241433809</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.6133066893881171</v>
+        <v>-0.6071782064281526</v>
       </c>
       <c r="F62" t="n">
-        <v>-2.335920294823899</v>
+        <v>-2.384229671946406</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.1548896988236</v>
+        <v>-0.1617275195306224</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.2372514472409347</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.8130349737200966</v>
+        <v>-0.8058360799724392</v>
       </c>
       <c r="F63" t="n">
-        <v>-2.427079649091341</v>
+        <v>-2.473776395944525</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.1599825364744462</v>
+        <v>-0.1776842642757051</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.2792144991710669</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.9238337737788256</v>
+        <v>-0.9141561624008642</v>
       </c>
       <c r="F64" t="n">
-        <v>-2.414333526788659</v>
+        <v>-2.45092937731422</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.1838322646973256</v>
+        <v>-0.1961929171323017</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.3192664016101184</v>
       </c>
       <c r="E65" t="n">
-        <v>-1.077502678364822</v>
+        <v>-1.073030130042228</v>
       </c>
       <c r="F65" t="n">
-        <v>-2.412677592151289</v>
+        <v>-2.446953304422499</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.1890794122793891</v>
+        <v>-0.2037315366969077</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.357464891042066</v>
       </c>
       <c r="E66" t="n">
-        <v>-1.229566881650294</v>
+        <v>-1.227515718414391</v>
       </c>
       <c r="F66" t="n">
-        <v>-2.447181414755603</v>
+        <v>-2.478284929587047</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.2622418371380256</v>
+        <v>-0.2729593632698425</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.3933552520888688</v>
       </c>
       <c r="E67" t="n">
-        <v>-1.372169995398051</v>
+        <v>-1.373240406185744</v>
       </c>
       <c r="F67" t="n">
-        <v>-2.343761435044172</v>
+        <v>-2.375105258622255</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.2556083398577138</v>
+        <v>-0.2685221903465004</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.4271646471530905</v>
       </c>
       <c r="E68" t="n">
-        <v>-1.489813935211923</v>
+        <v>-1.491577825809079</v>
       </c>
       <c r="F68" t="n">
-        <v>-2.386323529629682</v>
+        <v>-2.421578164587073</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.2973250843852507</v>
+        <v>-0.3126182354340315</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.4584864135717635</v>
       </c>
       <c r="E69" t="n">
-        <v>-1.608782012815016</v>
+        <v>-1.619314123061101</v>
       </c>
       <c r="F69" t="n">
-        <v>-2.417808244884093</v>
+        <v>-2.450474986410042</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.2932733813296133</v>
+        <v>-0.3039573618242091</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.4867698538980578</v>
       </c>
       <c r="E70" t="n">
-        <v>-1.74464672292606</v>
+        <v>-1.760127729543279</v>
       </c>
       <c r="F70" t="n">
-        <v>-2.349789281092473</v>
+        <v>-2.386196666128918</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.2889856389720745</v>
+        <v>-0.3087519482641256</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.5109815780057869</v>
       </c>
       <c r="E71" t="n">
-        <v>-1.814521675337024</v>
+        <v>-1.832169730118729</v>
       </c>
       <c r="F71" t="n">
-        <v>-2.365153792860434</v>
+        <v>-2.393473629723199</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.356253180489941</v>
+        <v>-0.3659283521851955</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.5293007178731383</v>
       </c>
       <c r="E72" t="n">
-        <v>-1.86901869772514</v>
+        <v>-1.888768539158919</v>
       </c>
       <c r="F72" t="n">
-        <v>-2.394286653985304</v>
+        <v>-2.420551058167429</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.4246899399451337</v>
+        <v>-0.4308580677490867</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.5405203477030135</v>
       </c>
       <c r="E73" t="n">
-        <v>-1.883897102713732</v>
+        <v>-1.913982050015007</v>
       </c>
       <c r="F73" t="n">
-        <v>-2.325172882578922</v>
+        <v>-2.352990754724724</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.45910898357538</v>
+        <v>-0.4665414769422319</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.5434612475312999</v>
       </c>
       <c r="E74" t="n">
-        <v>-1.887180305716667</v>
+        <v>-1.923594399880556</v>
       </c>
       <c r="F74" t="n">
-        <v>-2.390450252928559</v>
+        <v>-2.417082439278763</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.4425557364084378</v>
+        <v>-0.447273472843084</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.537569269345808</v>
       </c>
       <c r="E75" t="n">
-        <v>-1.850348415889205</v>
+        <v>-1.886536229482021</v>
       </c>
       <c r="F75" t="n">
-        <v>-2.297750239031652</v>
+        <v>-2.324684336116846</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.4827647570230535</v>
+        <v>-0.4866243350655152</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.5227825503892688</v>
       </c>
       <c r="E76" t="n">
-        <v>-1.731371799396638</v>
+        <v>-1.775029311517587</v>
       </c>
       <c r="F76" t="n">
-        <v>-2.26324031722057</v>
+        <v>-2.275943135155202</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.4339515854215529</v>
+        <v>-0.4416054799940643</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.4990924413791195</v>
       </c>
       <c r="E77" t="n">
-        <v>-1.585319584221871</v>
+        <v>-1.627107689468588</v>
       </c>
       <c r="F77" t="n">
-        <v>-2.142877351029755</v>
+        <v>-2.161438457064552</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.4589400355479208</v>
+        <v>-0.4649855692958476</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.4671441848218232</v>
       </c>
       <c r="E78" t="n">
-        <v>-1.487074171531971</v>
+        <v>-1.527645485028575</v>
       </c>
       <c r="F78" t="n">
-        <v>-2.1165848904965</v>
+        <v>-2.128217297643439</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.4256603237418398</v>
+        <v>-0.4330745194883892</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.4270536803450573</v>
       </c>
       <c r="E79" t="n">
-        <v>-1.297316870423469</v>
+        <v>-1.349188794218861</v>
       </c>
       <c r="F79" t="n">
-        <v>-2.042231290556174</v>
+        <v>-2.060402047357852</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.4135582776738048</v>
+        <v>-0.4159656345849294</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.3791879038487159</v>
       </c>
       <c r="E80" t="n">
-        <v>-1.160195723718324</v>
+        <v>-1.202457127410197</v>
       </c>
       <c r="F80" t="n">
-        <v>-2.012495827802676</v>
+        <v>-2.018264457563359</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.3785793268623037</v>
+        <v>-0.3827463049258464</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.3237000960275976</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.8478327780906035</v>
+        <v>-0.891424418778464</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.908346992882531</v>
+        <v>-1.917411633980361</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.3324058919497687</v>
+        <v>-0.3392882368661938</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.2604083662068969</v>
       </c>
       <c r="E82" t="n">
-        <v>-0.6330040776436956</v>
+        <v>-0.6680470701262553</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.969391513735537</v>
+        <v>-1.964232804651602</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.2954855636241785</v>
+        <v>-0.2974690256649632</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.189819497524781</v>
       </c>
       <c r="E83" t="n">
-        <v>-0.3648036584572721</v>
+        <v>-0.3949538672709588</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.907502252745235</v>
+        <v>-1.902633255982755</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.2774990028668783</v>
+        <v>-0.281453118614236</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.1126856066589433</v>
       </c>
       <c r="E84" t="n">
-        <v>-0.1288161998132972</v>
+        <v>-0.1494370079734723</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.754007175552112</v>
+        <v>-1.748678298599364</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.2686014800344776</v>
+        <v>-0.2745915110008203</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.03184258932367408</v>
       </c>
       <c r="E85" t="n">
-        <v>0.1672777216828452</v>
+        <v>0.1456822602812267</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.63519462772159</v>
+        <v>-1.628867920541683</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.2247280559939596</v>
+        <v>-0.2268658279659615</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>0.04840036355243822</v>
       </c>
       <c r="E86" t="n">
-        <v>0.3807517883066958</v>
+        <v>0.3586183768681855</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.479283044807191</v>
+        <v>-1.477070252591949</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.2295049547342504</v>
+        <v>-0.2323709719942895</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>0.1237062116626948</v>
       </c>
       <c r="E87" t="n">
-        <v>0.6221211870022955</v>
+        <v>0.6023536578688908</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.413086523997694</v>
+        <v>-1.403191780858811</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.1473407106074892</v>
+        <v>-0.151183210871002</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>0.1892813797018487</v>
       </c>
       <c r="E88" t="n">
-        <v>0.8038909669281051</v>
+        <v>0.7934033808914223</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.294629559921717</v>
+        <v>-1.282057874932586</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.06708917772301003</v>
+        <v>-0.07441371513007745</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.2411327581393471</v>
       </c>
       <c r="E89" t="n">
-        <v>0.8804164943983305</v>
+        <v>0.8825908616109374</v>
       </c>
       <c r="F89" t="n">
-        <v>-1.054494030755178</v>
+        <v>-1.05153225594889</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.06990335172552557</v>
+        <v>-0.07202587568060881</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.2746354566380763</v>
       </c>
       <c r="E90" t="n">
-        <v>0.9899021352400209</v>
+        <v>1.001861459869697</v>
       </c>
       <c r="F90" t="n">
-        <v>-1.01516878520117</v>
+        <v>-0.9972749323867359</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.03058420537828527</v>
+        <v>-0.03774101459924698</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.2865360577504348</v>
       </c>
       <c r="E91" t="n">
-        <v>1.038187725456134</v>
+        <v>1.041513622906441</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.7272728075211987</v>
+        <v>-0.7094655634428624</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.04700631959972672</v>
+        <v>-0.04979731661652584</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.2738938951440938</v>
       </c>
       <c r="E92" t="n">
-        <v>1.038711647317461</v>
+        <v>1.048080028912311</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.4778695336714736</v>
+        <v>-0.4522681132649738</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.08420599159526752</v>
+        <v>-0.08531543730627225</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.2351753874740009</v>
       </c>
       <c r="E93" t="n">
-        <v>1.152170311447488</v>
+        <v>1.160462183047878</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.2802381566261539</v>
+        <v>-0.258432882511734</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.05829351164362629</v>
+        <v>-0.06491237082769621</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.1732541027404966</v>
       </c>
       <c r="E94" t="n">
-        <v>1.213604571612936</v>
+        <v>1.214630458191227</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.05927548393319066</v>
+        <v>-0.03430045206171119</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.1147739960725267</v>
+        <v>-0.1124471486907329</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>0.09617837132912906</v>
       </c>
       <c r="E95" t="n">
-        <v>1.213402687868933</v>
+        <v>1.212473168757569</v>
       </c>
       <c r="F95" t="n">
-        <v>0.08386192032739707</v>
+        <v>0.1141365529591404</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.08027627267497979</v>
+        <v>-0.08216519701086852</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>0.01650364969478545</v>
       </c>
       <c r="E96" t="n">
-        <v>1.191409558186074</v>
+        <v>1.176055415069619</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1727871351559104</v>
+        <v>0.1995736314373316</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.1490155527858394</v>
+        <v>-0.1523829248421655</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.05142316644541405</v>
       </c>
       <c r="E97" t="n">
-        <v>1.149886768433743</v>
+        <v>1.131358598115491</v>
       </c>
       <c r="F97" t="n">
-        <v>0.2714625419229182</v>
+        <v>0.2898486007234884</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.1597312491556261</v>
+        <v>-0.1672363230830109</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.09680742127129874</v>
       </c>
       <c r="E98" t="n">
-        <v>1.097507390635297</v>
+        <v>1.067286431023107</v>
       </c>
       <c r="F98" t="n">
-        <v>0.2823685335438503</v>
+        <v>0.3018182940046691</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.1828075979603888</v>
+        <v>-0.1927913895180778</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.115951050516495</v>
       </c>
       <c r="E99" t="n">
-        <v>1.010545510465236</v>
+        <v>0.986277986578784</v>
       </c>
       <c r="F99" t="n">
-        <v>0.3146400464712668</v>
+        <v>0.3325436580165292</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.1875759578112051</v>
+        <v>-0.1974633819019679</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.1151319248761428</v>
       </c>
       <c r="E100" t="n">
-        <v>0.9088290392039621</v>
+        <v>0.885913099537184</v>
       </c>
       <c r="F100" t="n">
-        <v>0.3531443387943716</v>
+        <v>0.362761568025335</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.154098021785181</v>
+        <v>-0.1664257385036127</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.1061134932827839</v>
       </c>
       <c r="E101" t="n">
-        <v>0.9518882191410214</v>
+        <v>0.9309331744499884</v>
       </c>
       <c r="F101" t="n">
-        <v>0.3586988863975162</v>
+        <v>0.3662314067553547</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.2269268200336363</v>
+        <v>-0.2338927240827759</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.1038707104166588</v>
       </c>
       <c r="E102" t="n">
-        <v>0.9517674548470253</v>
+        <v>0.9323396515305694</v>
       </c>
       <c r="F102" t="n">
-        <v>0.3318087036010478</v>
+        <v>0.3357359828386286</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.1966204715267021</v>
+        <v>-0.2087273969601511</v>
       </c>
     </row>
   </sheetData>
